--- a/biology/Biologie cellulaire et moléculaire/SREBP/SREBP.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/SREBP/SREBP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les protéines de liaison à l'élément de régulation des stérols[1], SREBPs (en anglais : Sterol regulatory element-binding proteins) sont des facteurs de transcription.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les protéines de liaison à l'élément de régulation des stérols, SREBPs (en anglais : Sterol regulatory element-binding proteins) sont des facteurs de transcription.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Isoformes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il existe 3 isoformes de SREBP chez les mammifères :
-SREBP-1a codé par le gène SREBP-1. Il est principalement exprimée dans la rate et l'intestin[2].
-SREBP-1c également codé par le gène SREBP-1. Il est très exprimé dans le foie et les tissus adipeux, et dans une moindre mesure dans les glandes surrénales, le cerveau et les muscles[2].
+SREBP-1a codé par le gène SREBP-1. Il est principalement exprimée dans la rate et l'intestin.
+SREBP-1c également codé par le gène SREBP-1. Il est très exprimé dans le foie et les tissus adipeux, et dans une moindre mesure dans les glandes surrénales, le cerveau et les muscles.
 SREBP-2 codée par le gène SREBP2.</t>
         </is>
       </c>
